--- a/doc/managment/birn/Projektsteckbrief_Gruppe4.xlsx
+++ b/doc/managment/birn/Projektsteckbrief_Gruppe4.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHBW\Projects\Web\Server-Client\vorlesungs-planung\doc\managment\birn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\vorlesungs-planung\doc\managment\birn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEECED-C61C-404C-8BF1-57258A3DA3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEAFDB8-B027-4FF6-A29F-E135693903AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -253,15 +262,6 @@
     <t>150h</t>
   </si>
   <si>
-    <t>18.05.2021</t>
-  </si>
-  <si>
-    <t>02.06.2021</t>
-  </si>
-  <si>
-    <t>08.06.2021</t>
-  </si>
-  <si>
     <t>20.06.2021</t>
   </si>
   <si>
@@ -310,18 +310,12 @@
     <t>SZI, Anwendungsprojekt TIF</t>
   </si>
   <si>
-    <t>Sekräterinnen unzufrieden mit Beta</t>
-  </si>
-  <si>
     <t>Mittel</t>
   </si>
   <si>
     <t>Kritisch</t>
   </si>
   <si>
-    <t>Absprache im Voraus</t>
-  </si>
-  <si>
     <t>Missverständnis im Team</t>
   </si>
   <si>
@@ -343,18 +337,12 @@
     <t>Reaktion</t>
   </si>
   <si>
-    <t>Nacharbeitung</t>
-  </si>
-  <si>
     <t>Umverteilung</t>
   </si>
   <si>
     <t>klare Absprache</t>
   </si>
   <si>
-    <t>Planung und prototypische umsetzung eines Vorlesungsplanungs-tools für die DHBW-Lörrach durch Gruppe 4 bis zum 20.06.2021, um die Vorlesungsplanung zu digitalisieren.</t>
-  </si>
-  <si>
     <t>Planung  des prototypischen Vorlesungsplanungs-Tools mithilfe von Wireframes &amp; Mockups durch Gruppe 4.</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     <t>Überprüfung des prototypischen Vorlesungsplanungs-Tools durch Gruppe 4.</t>
   </si>
   <si>
-    <t>Übergabe des prototypischen Vorlesungsplanungs-Tools durch Gruppe 4.</t>
-  </si>
-  <si>
     <t>Mehrsprachig, Mobile support, eigene Datenbank errichten, Internet Explorer support, externe Tests, echt-Daten Nutzung (der DHBW)</t>
   </si>
   <si>
@@ -380,6 +365,30 @@
   </si>
   <si>
     <t>0h</t>
+  </si>
+  <si>
+    <t>Frontend nicht fertig</t>
+  </si>
+  <si>
+    <t>Resourcen Umplanen</t>
+  </si>
+  <si>
+    <t>Klare Planung, Homeoffice</t>
+  </si>
+  <si>
+    <t>Planung und prototypische Umsetzung eines Vorlesungsplanungs-tools für die DHBW-Lörrach durch Gruppe 4 bis zum 20.06.2021, um die Vorlesungsplanung zu digitalisieren.</t>
+  </si>
+  <si>
+    <t>Übergabe des prototypischen Vorlesungsplanungs-Tools an Kunden durch Gruppe 4.</t>
+  </si>
+  <si>
+    <t>26.04.2021</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>17.06.2021</t>
   </si>
 </sst>
 </file>
@@ -511,7 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,14 +1567,125 @@
     <xf numFmtId="44" fontId="10" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1573,118 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2008,7 +2017,7 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,21 +2042,21 @@
         <v>22</v>
       </c>
       <c r="H1" s="73">
-        <v>44348</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="72" t="s">
@@ -2060,7 +2069,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>32</v>
@@ -2071,145 +2080,145 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="D4" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="D5" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="102"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="103"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="104"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="12" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="100" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="D10" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="111"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="99"/>
+      <c r="D11" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="111"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="D12" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="115"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
+      <c r="D13" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="100" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="59" t="s">
@@ -2228,37 +2237,37 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="112"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="112"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -2268,63 +2277,63 @@
         <v>11</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="112"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -2340,7 +2349,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="123"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="61" t="s">
         <v>45</v>
       </c>
@@ -2357,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="123"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="65" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>20</v>
@@ -2382,12 +2391,12 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="124"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="66" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -2398,11 +2407,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="67"/>
@@ -2417,7 +2426,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="120"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="67" t="s">
         <v>23</v>
       </c>
@@ -2432,7 +2441,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="120"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="67" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +2456,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="120"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="67" t="s">
         <v>25</v>
       </c>
@@ -2462,7 +2471,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="121"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="61" t="s">
         <v>16</v>
       </c>
@@ -2470,14 +2479,14 @@
         <v>59</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="113"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="68" t="s">
         <v>34</v>
       </c>
@@ -2492,7 +2501,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="113"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="68" t="s">
         <v>35</v>
       </c>
@@ -2507,7 +2516,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="111"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="60" t="s">
         <v>21</v>
       </c>
@@ -2522,7 +2531,7 @@
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="84" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="56" t="s">
@@ -2535,70 +2544,70 @@
         <v>43</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="119"/>
-      <c r="C33" s="84" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="85"/>
+      <c r="C34" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="85" t="s">
+      <c r="H34" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="86"/>
+      <c r="C35" s="58" t="s">
         <v>83</v>
-      </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="119"/>
-      <c r="C34" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="115"/>
-      <c r="C35" s="58" t="s">
-        <v>88</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -2614,17 +2623,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="D10:H10"/>
@@ -2634,6 +2632,17 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
